--- a/app/formatos/area_excel.xlsx
+++ b/app/formatos/area_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\situ-web\app\formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84F02A6-F634-41AE-BEFC-135C9DA23C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C7CF6E-519D-4DE8-8963-43F9CF839E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,16 +64,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -81,13 +95,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -373,36 +407,36 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
     </row>
@@ -413,57 +447,57 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78856EFD-D402-4BDA-9F92-72FEFA9F74C1}">
-  <dimension ref="B1:E4"/>
+  <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E5" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="B4:C4"/>

--- a/app/formatos/area_excel.xlsx
+++ b/app/formatos/area_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\situ-web\app\formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C7CF6E-519D-4DE8-8963-43F9CF839E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17672BF8-9513-4D44-B6F6-CD0348271BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -407,7 +407,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/app/formatos/area_excel.xlsx
+++ b/app/formatos/area_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\situ-web\app\formatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\situ-web\app\formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17672BF8-9513-4D44-B6F6-CD0348271BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442EF1BB-9E29-4AD6-92B5-56E33CAD94F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Nombre de Area</t>
   </si>
@@ -50,13 +50,25 @@
   </si>
   <si>
     <t>suspendido</t>
+  </si>
+  <si>
+    <t>Bloqueado</t>
+  </si>
+  <si>
+    <t>Etapa Productiva</t>
+  </si>
+  <si>
+    <t>Retirado</t>
+  </si>
+  <si>
+    <t>POR FAVOR TENER EN CUENTA LA HOJA DE CALCULO "PARAMETROS" Y SI ES NECESARIO REALIZAR LAS RESPECTIVAS MODIFICACIONES DE LA HOJA PARAMETROS DE ACUERDO A LA BASE DE DATOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,8 +84,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -84,6 +103,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -111,21 +136,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="60% - Énfasis6" xfId="1" builtinId="52"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -404,53 +434,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="H2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H2:M9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78856EFD-D402-4BDA-9F92-72FEFA9F74C1}">
-  <dimension ref="B2:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DC7297-0BD3-454D-8AC7-19E2F4F4BA18}">
+  <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +581,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
@@ -493,8 +589,38 @@
       </c>
       <c r="E5" s="3"/>
     </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="13">
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B2:E2"/>
@@ -502,6 +628,12 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
